--- a/posesiones/1381318.xlsx
+++ b/posesiones/1381318.xlsx
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>24</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>8</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>22</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>22</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>8</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>20</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>15</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>14</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>11</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>21</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>19</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>15</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>21</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R65">
         <v>61</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R67">
         <v>7</v>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R69">
         <v>25</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R71">
         <v>5</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R73">
         <v>6</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R75">
         <v>8</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R81">
         <v>36</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>25</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>16</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R88">
         <v>8</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R92">
         <v>15</v>
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>7</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7095,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R107">
         <v>18</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R109">
         <v>10</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>19</v>
@@ -7342,10 +7342,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7480,10 +7480,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>10</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R118">
         <v>14</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R120">
         <v>6</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R124">
         <v>21</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R126">
         <v>7</v>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R128">
         <v>12</v>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R129">
         <v>8</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R135">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R136">
         <v>19</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R138">
         <v>10</v>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>9</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>26</v>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>17</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R145">
         <v>5</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R147">
         <v>10</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>19</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9289,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>14</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>9</v>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R157">
         <v>14</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R162">
         <v>10</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9930,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R164">
         <v>19</v>
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R167">
         <v>16</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R173">
         <v>10</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R174">
         <v>20</v>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10524,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R176">
         <v>14</v>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10724,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R180">
         <v>26</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11109,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R188">
         <v>15</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R190">
         <v>25</v>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R192">
         <v>10</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R197">
         <v>12</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11650,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R199">
         <v>18</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R203">
         <v>18</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12088,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R208">
         <v>14</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12570,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>23</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R224">
         <v>24</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R227">
         <v>15</v>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R229">
         <v>20</v>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R231">
         <v>18</v>
@@ -13264,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13311,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13455,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R236">
         <v>1</v>
@@ -13508,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R237">
         <v>16</v>
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R240">
         <v>16</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13755,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R242">
         <v>7</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R244">
         <v>2</v>
@@ -13902,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13952,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14416,10 +14416,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14469,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R257">
         <v>10</v>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14569,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R259">
         <v>20</v>
@@ -14622,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R260">
         <v>25</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R261">
         <v>26</v>
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14816,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14866,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R265">
         <v>11</v>
@@ -14916,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15104,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15151,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R272">
         <v>27</v>
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R273">
         <v>8</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15354,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R275">
         <v>13</v>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15451,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R278">
         <v>0</v>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R279">
         <v>14</v>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R281">
         <v>27</v>
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16036,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16086,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R290">
         <v>0</v>
@@ -16139,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R291">
         <v>22</v>
@@ -16192,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16242,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R293">
         <v>9</v>
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16342,7 +16342,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16445,7 +16445,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R297">
         <v>14</v>
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16642,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R301">
         <v>19</v>
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R305">
         <v>19</v>
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16992,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17142,7 +17142,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R311">
         <v>19</v>
@@ -17195,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R312">
         <v>22</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17292,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17339,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R316">
         <v>7</v>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R321">
         <v>1</v>
@@ -17686,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>15</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17927,7 +17927,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R327">
         <v>20</v>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18121,7 +18121,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R331">
         <v>11</v>
@@ -18171,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18315,7 +18315,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R335">
         <v>21</v>
@@ -18368,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18468,7 +18468,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R338">
         <v>11</v>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18941,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R351">
         <v>27</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R353">
         <v>17</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19291,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R355">
         <v>13</v>
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R357">
         <v>11</v>
@@ -19444,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19635,7 +19635,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R362">
         <v>17</v>
@@ -19688,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R363">
         <v>16</v>
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20026,7 +20026,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -20076,7 +20076,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20267,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R375">
         <v>5</v>
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20358,10 +20358,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20408,7 +20408,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20455,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20502,7 +20502,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20684,10 +20684,10 @@
         <v>1</v>
       </c>
       <c r="P384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20737,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R385">
         <v>11</v>
@@ -20787,7 +20787,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20837,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R387">
         <v>4</v>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20937,7 +20937,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R389">
         <v>7</v>
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21037,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R391">
         <v>9</v>
@@ -21087,7 +21087,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21137,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21187,7 +21187,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R394">
         <v>18</v>
@@ -21240,7 +21240,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R395">
         <v>11</v>
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21343,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R397">
         <v>16</v>
@@ -21393,7 +21393,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21443,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R399">
         <v>2</v>
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R400">
         <v>9</v>
@@ -21549,7 +21549,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R401">
         <v>16</v>
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21649,7 +21649,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21699,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21749,7 +21749,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R405">
         <v>25</v>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21843,7 +21843,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21937,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21984,7 +21984,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22031,7 +22031,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22078,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22128,7 +22128,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R413">
         <v>11</v>
@@ -22181,7 +22181,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R414">
         <v>15</v>
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22278,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22325,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22372,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22469,7 +22469,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22566,7 +22566,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R422">
         <v>23</v>
@@ -22619,7 +22619,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22669,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R424">
         <v>4</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22769,7 +22769,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R426">
         <v>14</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22869,7 +22869,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R428">
         <v>5</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22966,7 +22966,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R430">
         <v>15</v>
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23160,7 +23160,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23210,7 +23210,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R435">
         <v>5</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23307,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23448,7 +23448,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R440">
         <v>31</v>
@@ -23501,7 +23501,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R441">
         <v>13</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23742,7 +23742,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R446">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R447">
         <v>22</v>
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23895,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R449">
         <v>18</v>
@@ -23945,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23995,7 +23995,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R452">
         <v>26</v>
@@ -24098,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R453">
         <v>13</v>
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R455">
         <v>16</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24345,7 +24345,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24392,7 +24392,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24442,7 +24442,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R460">
         <v>12</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24633,7 +24633,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R464">
         <v>19</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24877,7 +24877,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R469">
         <v>4</v>
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25024,7 +25024,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25071,7 +25071,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25118,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R481">
         <v>21</v>
@@ -25509,7 +25509,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R482">
         <v>19</v>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25612,7 +25612,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R484">
         <v>13</v>
@@ -25662,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25756,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25853,7 +25853,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R489">
         <v>7</v>
@@ -25906,7 +25906,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25956,7 +25956,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R491">
         <v>6</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26053,7 +26053,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26150,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26197,7 +26197,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26247,7 +26247,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26297,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R498">
         <v>26</v>
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26441,7 +26441,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26488,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26538,7 +26538,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R503">
         <v>1</v>
@@ -26591,7 +26591,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R504">
         <v>20</v>
@@ -26644,7 +26644,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26694,7 +26694,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R506">
         <v>14</v>
@@ -26747,7 +26747,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R507">
         <v>21</v>
@@ -26800,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26847,7 +26847,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26897,7 +26897,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26947,7 +26947,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R511">
         <v>15</v>
@@ -27000,7 +27000,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27094,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27141,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27188,7 +27188,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27235,7 +27235,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27282,7 +27282,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27329,7 +27329,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27379,7 +27379,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R520">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27479,7 +27479,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R522">
         <v>0</v>
@@ -27532,7 +27532,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27582,7 +27582,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R524">
         <v>3</v>
@@ -27632,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R529">
         <v>4</v>
@@ -27876,7 +27876,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R530">
         <v>6</v>
@@ -27926,7 +27926,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27973,7 +27973,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28070,7 +28070,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R534">
         <v>5</v>
@@ -28123,7 +28123,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R535">
         <v>4</v>
@@ -28176,7 +28176,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R536">
         <v>18</v>
@@ -28229,7 +28229,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R537">
         <v>0</v>
@@ -28273,10 +28273,10 @@
         <v>1</v>
       </c>
       <c r="P538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q538">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28317,7 +28317,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
